--- a/APP/Registration_data.xlsx
+++ b/APP/Registration_data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="34" uniqueCount="15">
   <si>
     <t>Firstname</t>
   </si>
@@ -150,9 +150,7 @@
       <c r="D2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>9</v>
-      </c>
+      <c r="E2" s="0"/>
       <c r="F2" s="0" t="s">
         <v>11</v>
       </c>
@@ -170,9 +168,7 @@
       <c r="D3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>9</v>
-      </c>
+      <c r="E3" s="0"/>
       <c r="F3" s="0" t="s">
         <v>14</v>
       </c>

--- a/APP/Registration_data.xlsx
+++ b/APP/Registration_data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="34" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="24" uniqueCount="12">
   <si>
     <t>Firstname</t>
   </si>
@@ -30,13 +30,10 @@
     <t>Email</t>
   </si>
   <si>
-    <t>n@gmail.com</t>
+    <t>naroa.iturriozg@alumni.mondragon.edu</t>
   </si>
   <si>
     <t>Username</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>Password</t>
@@ -51,13 +48,7 @@
     <t>123456</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>123457</t>
+    <t>5678</t>
   </si>
 </sst>
 </file>
@@ -103,7 +94,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -111,7 +102,7 @@
   <cols>
     <col min="1" max="1" width="9" customWidth="true"/>
     <col min="2" max="2" width="8.88671875" customWidth="true"/>
-    <col min="3" max="3" width="12.21875" customWidth="true"/>
+    <col min="3" max="3" width="5.44140625" customWidth="true"/>
     <col min="4" max="4" width="9.33203125" customWidth="true"/>
     <col min="5" max="5" width="8.77734375" customWidth="true"/>
     <col min="6" max="6" width="10.33203125" customWidth="true"/>
@@ -131,10 +122,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -148,29 +139,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0" t="s">
-        <v>14</v>
+      <c r="F2" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/APP/Registration_data.xlsx
+++ b/APP/Registration_data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="36" uniqueCount="12">
   <si>
     <t>Firstname</t>
   </si>
@@ -142,7 +142,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>10</v>
